--- a/legislator/property/output/normal/姚文智_2013-12-31_財產申報表_tmpc2191.xlsx
+++ b/legislator/property/output/normal/姚文智_2013-12-31_財產申報表_tmpc2191.xlsx
@@ -22,9 +22,105 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="80">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="95">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>臺北市大安區辛亥段四小段06150001地號</t>
+  </si>
+  <si>
+    <t>臺北市大安區辛亥段四小段06150002地號</t>
+  </si>
+  <si>
+    <t>臺北市文山區興泰段一小段08020000地號</t>
+  </si>
+  <si>
+    <t>臺北市文山區興泰段一小段08040000地號</t>
+  </si>
+  <si>
+    <t>臺北市文山區興泰段一小段08200000地號</t>
+  </si>
+  <si>
+    <t>100000分之528</t>
+  </si>
+  <si>
+    <t>潘瓊琪</t>
+  </si>
+  <si>
+    <t>93年10月01日</t>
+  </si>
+  <si>
+    <t>93年10月01曰</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>1250000(連同建物係同一棟住宅(見後)）</t>
+  </si>
+  <si>
+    <t>1250000(3同建物係同一棟住宅(見後)）</t>
+  </si>
+  <si>
+    <t>1250000(3同建物係同一棟住宅(見後））</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>姚文智</t>
+  </si>
+  <si>
+    <t>tmpc2191</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -33,7 +129,7 @@
     <t>權利範圍(持分）</t>
   </si>
   <si>
-    <t>所有權_人</t>
+    <t>所有權人</t>
   </si>
   <si>
     <t>登記（取得）時間</t>
@@ -45,58 +141,10 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>臺北市大安區辛亥段四小段 0615-0001 地號</t>
-  </si>
-  <si>
-    <t>臺北市大安區辛亥段四小段 0615-0002 地號</t>
-  </si>
-  <si>
-    <t>臺北市文山區興泰段一小段 0802-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市文山區興泰段一小段 0804-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市文山區興泰段一小段 0820-0000 地號</t>
-  </si>
-  <si>
-    <t>100000 分 之528</t>
-  </si>
-  <si>
-    <t>潘瓊琪</t>
-  </si>
-  <si>
-    <t>93年10月 01日</t>
-  </si>
-  <si>
-    <t>93年10月 01曰</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>1，250，000(連 同建物係同一 棟住宅(見 後)）</t>
-  </si>
-  <si>
-    <t>1,250，000(連 同建物係同一 棟住宅(見 後)）</t>
-  </si>
-  <si>
-    <t>1,250,000(3 同建物係同一 棟住宅(見 後)）</t>
-  </si>
-  <si>
-    <t>1,250,000(3 同建物係同一 棟住宅(見 後））</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>臺北市文山區興泰段一小段 02000-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市文山區興泰段一小段 02377-000 建號</t>
+    <t>臺北市文山區興泰段一小段02000000建號</t>
+  </si>
+  <si>
+    <t>臺北市文山區興泰段一小段02377000建號</t>
   </si>
   <si>
     <t>全部</t>
@@ -105,10 +153,10 @@
     <t>184分之2</t>
   </si>
   <si>
-    <t>1,250，000(超 過五年）</t>
-  </si>
-  <si>
-    <t>150，000(車 位）</t>
+    <t>1250000(超過五年）</t>
+  </si>
+  <si>
+    <t>150000(車位）</t>
   </si>
   <si>
     <t>廠牌型號</t>
@@ -120,10 +168,10 @@
     <t>所有人</t>
   </si>
   <si>
-    <t>HONDA CR-V 2.4 VTi-S</t>
-  </si>
-  <si>
-    <t>102 年 01 月31曰</t>
+    <t>HONDACRV2.4VTiS</t>
+  </si>
+  <si>
+    <t>102年01月31曰</t>
   </si>
   <si>
     <t>存放機構(應敘明分支機構）</t>
@@ -162,16 +210,13 @@
     <t>新臺幣</t>
   </si>
   <si>
-    <t>姚文智</t>
-  </si>
-  <si>
-    <t>2，998，776</t>
+    <t>2998776</t>
   </si>
   <si>
     <t>財產種類</t>
   </si>
   <si>
-    <t>項/件</t>
+    <t>項件</t>
   </si>
   <si>
     <t>價額</t>
@@ -222,10 +267,10 @@
     <t>借款</t>
   </si>
   <si>
-    <t>創意企業有限公司 新北市新店區民權路88號 4F</t>
-  </si>
-  <si>
-    <t>102年08月 01日</t>
+    <t>創意企業有限公司新北市新店區民權路88號4F</t>
+  </si>
+  <si>
+    <t>102年08月01日</t>
   </si>
   <si>
     <t>債務人</t>
@@ -237,7 +282,7 @@
     <t>房屋貸款</t>
   </si>
   <si>
-    <t>花旗(台灣)商業銀行 臺北市信義區松智路1號</t>
+    <t>花旗(台灣)商業銀行臺北市信義區松智路1號</t>
   </si>
   <si>
     <t>轉貸自合庫</t>
@@ -620,13 +665,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -648,135 +693,261 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>202</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1745</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" s="2">
         <v>14</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>29</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1745</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O3" s="2">
         <v>15</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>15846.87</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1745</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O4" s="2">
         <v>16</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
         <v>471.97</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1745</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O5" s="2">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2">
         <v>4039.42</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1745</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O6" s="2">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -794,25 +965,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -820,25 +991,25 @@
         <v>23</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2">
         <v>116.17</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -846,25 +1017,25 @@
         <v>24</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C3" s="2">
         <v>6671.42</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -882,22 +1053,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -905,19 +1076,19 @@
         <v>33</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2">
         <v>2354</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G2" s="2">
         <v>950000</v>
@@ -938,19 +1109,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -958,16 +1129,16 @@
         <v>48</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F2" s="2">
         <v>50000</v>
@@ -978,16 +1149,16 @@
         <v>49</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F3" s="2">
         <v>310216</v>
@@ -998,16 +1169,16 @@
         <v>50</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F4" s="2">
         <v>580000</v>
@@ -1018,19 +1189,19 @@
         <v>51</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1048,16 +1219,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1065,13 +1236,13 @@
         <v>79</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="C2" s="2">
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="E2" s="2">
         <v>400000</v>
@@ -1082,13 +1253,13 @@
         <v>80</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="C3" s="2">
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="E3" s="2">
         <v>250000</v>
@@ -1099,13 +1270,13 @@
         <v>81</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="C4" s="2">
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E4" s="2">
         <v>500000</v>
@@ -1126,13 +1297,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1140,13 +1311,13 @@
         <v>86</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1154,13 +1325,13 @@
         <v>87</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1178,22 +1349,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1201,22 +1372,22 @@
         <v>92</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="E2" s="2">
         <v>2000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1234,22 +1405,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1257,22 +1428,22 @@
         <v>97</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="E2" s="2">
         <v>8070000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1290,22 +1461,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1313,22 +1484,22 @@
         <v>102</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="E2" s="2">
         <v>2500000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/姚文智_2013-12-31_財產申報表_tmpc2191.xlsx
+++ b/legislator/property/output/normal/姚文智_2013-12-31_財產申報表_tmpc2191.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="65">
   <si>
     <t>name</t>
   </si>
@@ -66,7 +66,10 @@
     <t>index</t>
   </si>
   <si>
-    <t>臺北市大安區辛亥段四小段06150001地號</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
   <si>
     <t>臺北市大安區辛亥段四小段06150002地號</t>
@@ -87,12 +90,12 @@
     <t>潘瓊琪</t>
   </si>
   <si>
+    <t>93年10月01曰</t>
+  </si>
+  <si>
     <t>93年10月01日</t>
   </si>
   <si>
-    <t>93年10月01曰</t>
-  </si>
-  <si>
     <t>買賣</t>
   </si>
   <si>
@@ -120,75 +123,39 @@
     <t>tmpc2191</t>
   </si>
   <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
     <t>臺北市文山區興泰段一小段02000000建號</t>
   </si>
   <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>1250000(超過五年）</t>
+  </si>
+  <si>
     <t>臺北市文山區興泰段一小段02377000建號</t>
   </si>
   <si>
-    <t>全部</t>
-  </si>
-  <si>
     <t>184分之2</t>
   </si>
   <si>
-    <t>1250000(超過五年）</t>
-  </si>
-  <si>
     <t>150000(車位）</t>
   </si>
   <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽缸容量</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
     <t>HONDACRV2.4VTiS</t>
   </si>
   <si>
     <t>102年01月31曰</t>
   </si>
   <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
     <t>聯邦商業銀行</t>
   </si>
   <si>
+    <t>活期存政</t>
+  </si>
+  <si>
+    <t>新臺幣</t>
+  </si>
+  <si>
     <t>合作金庫商業銀行</t>
   </si>
   <si>
@@ -198,30 +165,15 @@
     <t>臺灣銀行</t>
   </si>
   <si>
-    <t>活期存政</t>
-  </si>
-  <si>
     <t>活期存款</t>
   </si>
   <si>
     <t>活期儲蓄存款</t>
   </si>
   <si>
-    <t>新臺幣</t>
-  </si>
-  <si>
     <t>2998776</t>
   </si>
   <si>
-    <t>財產種類</t>
-  </si>
-  <si>
-    <t>項件</t>
-  </si>
-  <si>
-    <t>價額</t>
-  </si>
-  <si>
     <t>油畫</t>
   </si>
   <si>
@@ -231,39 +183,15 @@
     <t>珠寶</t>
   </si>
   <si>
-    <t>保險公司</t>
-  </si>
-  <si>
-    <t>保險.名稱</t>
-  </si>
-  <si>
-    <t>要保人</t>
-  </si>
-  <si>
     <t>富邦人壽</t>
   </si>
   <si>
+    <t>投資型壽險</t>
+  </si>
+  <si>
     <t>南山人壽</t>
   </si>
   <si>
-    <t>投資型壽險</t>
-  </si>
-  <si>
-    <t>債權人</t>
-  </si>
-  <si>
-    <t>債務人及地址</t>
-  </si>
-  <si>
-    <t>餘額</t>
-  </si>
-  <si>
-    <t>取得（發生）時間</t>
-  </si>
-  <si>
-    <t>取得（發生）原因</t>
-  </si>
-  <si>
     <t>借款</t>
   </si>
   <si>
@@ -273,12 +201,6 @@
     <t>102年08月01日</t>
   </si>
   <si>
-    <t>債務人</t>
-  </si>
-  <si>
-    <t>債權人及地址</t>
-  </si>
-  <si>
     <t>房屋貸款</t>
   </si>
   <si>
@@ -286,18 +208,6 @@
   </si>
   <si>
     <t>轉貸自合庫</t>
-  </si>
-  <si>
-    <t>投資人</t>
-  </si>
-  <si>
-    <t>投資事業名稱</t>
-  </si>
-  <si>
-    <t>投資事業地址</t>
-  </si>
-  <si>
-    <t>投資金額</t>
   </si>
   <si>
     <t>創意企業有限公司</t>
@@ -665,13 +575,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -714,240 +624,223 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>202</v>
+        <v>29</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M2" s="2">
         <v>1745</v>
       </c>
       <c r="N2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O2" s="2">
+        <v>15</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.00528</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>0.15312</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
+        <v>16</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2">
+        <v>15846.87</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="O2" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="1">
-        <v>15</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="2">
-        <v>29</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="M3" s="2">
         <v>1745</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O3" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>16</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.00528</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>83.6714736</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>15846.87</v>
+        <v>471.97</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>25</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M4" s="2">
         <v>1745</v>
       </c>
       <c r="N4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" s="2">
+        <v>17</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.00528</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>2.4920016</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="1">
+        <v>18</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2">
+        <v>4039.42</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="O4" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="1">
-        <v>17</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="2">
-        <v>471.97</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="M5" s="2">
         <v>1745</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O5" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="1">
         <v>18</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="2">
-        <v>4039.42</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="M6" s="2">
-        <v>1745</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O6" s="2">
-        <v>18</v>
+      <c r="P5" s="2">
+        <v>0.00528</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>21.3281376</v>
       </c>
     </row>
   </sheetData>
@@ -957,7 +850,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -965,77 +858,51 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="1" t="s">
         <v>33</v>
+      </c>
+      <c r="C1" s="1">
+        <v>116.17</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
+        <v>24</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="2">
+        <v>6671.42</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="2">
-        <v>116.17</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>24</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="2">
-        <v>6671.42</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1045,52 +912,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="B1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="2:7">
       <c r="B1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2354</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>33</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="2">
-        <v>2354</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="2">
+        <v>24</v>
+      </c>
+      <c r="G1" s="1">
         <v>950000</v>
       </c>
     </row>
@@ -1101,7 +945,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1109,99 +953,79 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>53</v>
+        <v>31</v>
+      </c>
+      <c r="F1" s="1">
+        <v>50000</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F2" s="2">
-        <v>50000</v>
+        <v>310216</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F3" s="2">
-        <v>310216</v>
+        <v>580000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="2">
-        <v>580000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1">
-        <v>51</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>62</v>
+        <v>31</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1211,7 +1035,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1219,66 +1043,49 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>64</v>
+        <v>50</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>65</v>
+        <v>31</v>
+      </c>
+      <c r="E1" s="1">
+        <v>400000</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="C2" s="2">
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E2" s="2">
-        <v>400000</v>
+        <v>250000</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="C3" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E3" s="2">
-        <v>250000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1">
-        <v>81</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" s="2">
-        <v>3</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="2">
         <v>500000</v>
       </c>
     </row>
@@ -1289,7 +1096,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1297,41 +1104,27 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>87</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1341,53 +1134,30 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="B1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="2:7">
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>77</v>
+        <v>57</v>
+      </c>
+      <c r="E1" s="1">
+        <v>2000000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>92</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E2" s="2">
-        <v>2000000</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1397,53 +1167,30 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="B1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="2:7">
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>83</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>77</v>
+        <v>60</v>
+      </c>
+      <c r="E1" s="1">
+        <v>8070000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>97</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E2" s="2">
-        <v>8070000</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1453,53 +1200,30 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="B1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="2:7">
       <c r="B1" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>63</v>
+      </c>
+      <c r="E1" s="1">
+        <v>2500000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>102</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E2" s="2">
-        <v>2500000</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/姚文智_2013-12-31_財產申報表_tmpc2191.xlsx
+++ b/legislator/property/output/normal/姚文智_2013-12-31_財產申報表_tmpc2191.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="66">
   <si>
     <t>name</t>
   </si>
@@ -72,6 +72,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>臺北市大安區辛亥段四小段06150001地號</t>
+  </si>
+  <si>
     <t>臺北市大安區辛亥段四小段06150002地號</t>
   </si>
   <si>
@@ -90,12 +93,12 @@
     <t>潘瓊琪</t>
   </si>
   <si>
+    <t>93年10月01日</t>
+  </si>
+  <si>
     <t>93年10月01曰</t>
   </si>
   <si>
-    <t>93年10月01日</t>
-  </si>
-  <si>
     <t>買賣</t>
   </si>
   <si>
@@ -126,16 +129,16 @@
     <t>臺北市文山區興泰段一小段02000000建號</t>
   </si>
   <si>
+    <t>臺北市文山區興泰段一小段02377000建號</t>
+  </si>
+  <si>
     <t>全部</t>
   </si>
   <si>
+    <t>184分之2</t>
+  </si>
+  <si>
     <t>1250000(超過五年）</t>
-  </si>
-  <si>
-    <t>臺北市文山區興泰段一小段02377000建號</t>
-  </si>
-  <si>
-    <t>184分之2</t>
   </si>
   <si>
     <t>150000(車位）</t>
@@ -575,7 +578,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -633,213 +636,266 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
+        <v>202</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="J2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M2" s="2">
         <v>1745</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O2" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P2" s="2">
         <v>0.00528</v>
       </c>
       <c r="Q2" s="2">
-        <v>0.15312</v>
+        <v>1.06656</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>15846.87</v>
+        <v>29</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>26</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M3" s="2">
         <v>1745</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O3" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P3" s="2">
         <v>0.00528</v>
       </c>
       <c r="Q3" s="2">
-        <v>83.6714736</v>
+        <v>0.15312</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>471.97</v>
+        <v>15846.87</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M4" s="2">
         <v>1745</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O4" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P4" s="2">
         <v>0.00528</v>
       </c>
       <c r="Q4" s="2">
-        <v>2.4920016</v>
+        <v>83.6714736</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>4039.42</v>
+        <v>471.97</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M5" s="2">
         <v>1745</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O5" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P5" s="2">
         <v>0.00528</v>
       </c>
       <c r="Q5" s="2">
+        <v>2.4920016</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="1">
+        <v>18</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="2">
+        <v>4039.42</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1745</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O6" s="2">
+        <v>18</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.00528</v>
+      </c>
+      <c r="Q6" s="2">
         <v>21.3281376</v>
       </c>
     </row>
@@ -850,59 +906,166 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>23</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="2">
         <v>116.17</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>24</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="2">
-        <v>6671.42</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>38</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1745</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" s="2">
+        <v>23</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>116.17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
+        <v>24</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="2">
+        <v>6671.42</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1745</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" s="2">
+        <v>24</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.0108695652173913</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>72.5154347826087</v>
       </c>
     </row>
   </sheetData>
@@ -912,29 +1075,52 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1">
         <v>2354</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="1">
+        <v>950000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>33</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="1">
+      <c r="C2" s="2">
+        <v>2354</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="2">
         <v>950000</v>
       </c>
     </row>
@@ -945,7 +1131,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -953,16 +1139,16 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1">
         <v>50000</v>
@@ -970,27 +1156,27 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F2" s="2">
-        <v>310216</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>45</v>
@@ -999,33 +1185,53 @@
         <v>48</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="F3" s="2">
-        <v>580000</v>
+        <v>310216</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="2">
+        <v>580000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>51</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>49</v>
+      <c r="C5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1035,7 +1241,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1043,13 +1249,13 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E1" s="1">
         <v>400000</v>
@@ -1057,7 +1263,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>51</v>
@@ -1066,26 +1272,43 @@
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E2" s="2">
-        <v>250000</v>
+        <v>400000</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C3" s="2">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="2">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>81</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="2">
         <v>3</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="2">
+      <c r="D4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="2">
         <v>500000</v>
       </c>
     </row>
@@ -1096,7 +1319,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1104,27 +1327,41 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
+        <v>86</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
         <v>87</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>21</v>
+      <c r="D3" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1134,30 +1371,53 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1">
         <v>2000000</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>92</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>56</v>
+      <c r="F2" s="2">
+        <v>2000000</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1167,21 +1427,21 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E1" s="1">
         <v>8070000</v>
@@ -1190,7 +1450,30 @@
         <v>23</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>97</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>61</v>
+      </c>
+      <c r="E2" s="2">
+        <v>8070000</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1200,21 +1483,21 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E1" s="1">
         <v>2500000</v>
@@ -1223,7 +1506,30 @@
         <v>23</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>102</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>64</v>
+      </c>
+      <c r="E2" s="2">
+        <v>2500000</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/姚文智_2013-12-31_財產申報表_tmpc2191.xlsx
+++ b/legislator/property/output/normal/姚文智_2013-12-31_財產申報表_tmpc2191.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="67">
   <si>
     <t>name</t>
   </si>
@@ -142,6 +142,9 @@
   </si>
   <si>
     <t>150000(車位）</t>
+  </si>
+  <si>
+    <t>capacity</t>
   </si>
   <si>
     <t>HONDACRV2.4VTiS</t>
@@ -1075,38 +1078,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="1">
-        <v>2354</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="1">
-        <v>950000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>33</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2">
         <v>2354</v>
@@ -1115,13 +1139,34 @@
         <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>25</v>
       </c>
       <c r="G2" s="2">
         <v>950000</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1745</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" s="2">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1139,13 +1184,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>32</v>
@@ -1159,13 +1204,13 @@
         <v>48</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>32</v>
@@ -1179,13 +1224,13 @@
         <v>49</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>32</v>
@@ -1199,13 +1244,13 @@
         <v>50</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>22</v>
@@ -1219,19 +1264,19 @@
         <v>51</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1249,7 +1294,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C1" s="1">
         <v>2</v>
@@ -1266,7 +1311,7 @@
         <v>79</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C2" s="2">
         <v>2</v>
@@ -1283,7 +1328,7 @@
         <v>80</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C3" s="2">
         <v>2</v>
@@ -1300,7 +1345,7 @@
         <v>81</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C4" s="2">
         <v>3</v>
@@ -1327,10 +1372,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>32</v>
@@ -1341,10 +1386,10 @@
         <v>86</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>32</v>
@@ -1355,10 +1400,10 @@
         <v>87</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>22</v>
@@ -1379,22 +1424,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E1" s="1">
         <v>2000000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1402,22 +1447,22 @@
         <v>92</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F2" s="2">
         <v>2000000</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1435,13 +1480,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E1" s="1">
         <v>8070000</v>
@@ -1450,7 +1495,7 @@
         <v>23</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1458,13 +1503,13 @@
         <v>97</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E2" s="2">
         <v>8070000</v>
@@ -1473,7 +1518,7 @@
         <v>23</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1494,10 +1539,10 @@
         <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E1" s="1">
         <v>2500000</v>
@@ -1506,7 +1551,7 @@
         <v>23</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1517,10 +1562,10 @@
         <v>22</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E2" s="2">
         <v>2500000</v>
@@ -1529,7 +1574,7 @@
         <v>23</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/姚文智_2013-12-31_財產申報表_tmpc2191.xlsx
+++ b/legislator/property/output/normal/姚文智_2013-12-31_財產申報表_tmpc2191.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="69">
   <si>
     <t>name</t>
   </si>
@@ -144,6 +144,9 @@
     <t>150000(車位）</t>
   </si>
   <si>
+    <t>building</t>
+  </si>
+  <si>
     <t>capacity</t>
   </si>
   <si>
@@ -151,6 +154,9 @@
   </si>
   <si>
     <t>102年01月31曰</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
   <si>
     <t>聯邦商業銀行</t>
@@ -991,7 +997,7 @@
         <v>38</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>30</v>
@@ -1044,7 +1050,7 @@
         <v>39</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>30</v>
@@ -1089,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1130,7 +1136,7 @@
         <v>33</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C2" s="2">
         <v>2354</v>
@@ -1139,7 +1145,7 @@
         <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>25</v>
@@ -1148,7 +1154,7 @@
         <v>950000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>30</v>
@@ -1184,13 +1190,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>32</v>
@@ -1204,13 +1210,13 @@
         <v>48</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>32</v>
@@ -1224,13 +1230,13 @@
         <v>49</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>32</v>
@@ -1244,13 +1250,13 @@
         <v>50</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>22</v>
@@ -1264,19 +1270,19 @@
         <v>51</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1294,7 +1300,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C1" s="1">
         <v>2</v>
@@ -1311,7 +1317,7 @@
         <v>79</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2">
         <v>2</v>
@@ -1328,7 +1334,7 @@
         <v>80</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2">
         <v>2</v>
@@ -1345,7 +1351,7 @@
         <v>81</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C4" s="2">
         <v>3</v>
@@ -1372,10 +1378,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>32</v>
@@ -1386,10 +1392,10 @@
         <v>86</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>32</v>
@@ -1400,10 +1406,10 @@
         <v>87</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>22</v>
@@ -1424,22 +1430,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E1" s="1">
         <v>2000000</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1447,22 +1453,22 @@
         <v>92</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F2" s="2">
         <v>2000000</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1480,13 +1486,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E1" s="1">
         <v>8070000</v>
@@ -1495,7 +1501,7 @@
         <v>23</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1503,13 +1509,13 @@
         <v>97</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E2" s="2">
         <v>8070000</v>
@@ -1518,7 +1524,7 @@
         <v>23</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1539,10 +1545,10 @@
         <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E1" s="1">
         <v>2500000</v>
@@ -1551,7 +1557,7 @@
         <v>23</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1562,10 +1568,10 @@
         <v>22</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E2" s="2">
         <v>2500000</v>
@@ -1574,7 +1580,7 @@
         <v>23</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/姚文智_2013-12-31_財產申報表_tmpc2191.xlsx
+++ b/legislator/property/output/normal/姚文智_2013-12-31_財產申報表_tmpc2191.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="72">
   <si>
     <t>name</t>
   </si>
@@ -159,31 +159,40 @@
     <t>car</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>聯邦商業銀行</t>
   </si>
   <si>
+    <t>合作金庫商業銀行</t>
+  </si>
+  <si>
+    <t>花旗(台灣滴業銀行</t>
+  </si>
+  <si>
+    <t>臺灣銀行</t>
+  </si>
+  <si>
     <t>活期存政</t>
   </si>
   <si>
+    <t>活期存款</t>
+  </si>
+  <si>
+    <t>活期儲蓄存款</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>合作金庫商業銀行</t>
-  </si>
-  <si>
-    <t>花旗(台灣滴業銀行</t>
-  </si>
-  <si>
-    <t>臺灣銀行</t>
-  </si>
-  <si>
-    <t>活期存款</t>
-  </si>
-  <si>
-    <t>活期儲蓄存款</t>
-  </si>
-  <si>
-    <t>2998776</t>
+    <t>deposit</t>
   </si>
   <si>
     <t>油畫</t>
@@ -1182,13 +1191,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>45</v>
       </c>
@@ -1199,24 +1208,45 @@
         <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="1">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>48</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>32</v>
@@ -1224,19 +1254,40 @@
       <c r="F2" s="2">
         <v>50000</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1745</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>49</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>32</v>
@@ -1244,19 +1295,40 @@
       <c r="F3" s="2">
         <v>310216</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1745</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>50</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>22</v>
@@ -1264,25 +1336,67 @@
       <c r="F4" s="2">
         <v>580000</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1745</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M4" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>51</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="2">
+        <v>2998776</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1745</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" s="2">
         <v>51</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1300,7 +1414,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1">
         <v>2</v>
@@ -1317,7 +1431,7 @@
         <v>79</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C2" s="2">
         <v>2</v>
@@ -1334,7 +1448,7 @@
         <v>80</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C3" s="2">
         <v>2</v>
@@ -1351,7 +1465,7 @@
         <v>81</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C4" s="2">
         <v>3</v>
@@ -1378,10 +1492,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>32</v>
@@ -1392,10 +1506,10 @@
         <v>86</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>32</v>
@@ -1406,10 +1520,10 @@
         <v>87</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>22</v>
@@ -1430,22 +1544,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E1" s="1">
         <v>2000000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1453,22 +1567,22 @@
         <v>92</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F2" s="2">
         <v>2000000</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1486,13 +1600,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E1" s="1">
         <v>8070000</v>
@@ -1501,7 +1615,7 @@
         <v>23</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1509,13 +1623,13 @@
         <v>97</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E2" s="2">
         <v>8070000</v>
@@ -1524,7 +1638,7 @@
         <v>23</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1545,10 +1659,10 @@
         <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E1" s="1">
         <v>2500000</v>
@@ -1557,7 +1671,7 @@
         <v>23</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1568,10 +1682,10 @@
         <v>22</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E2" s="2">
         <v>2500000</v>
@@ -1580,7 +1694,7 @@
         <v>23</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/姚文智_2013-12-31_財產申報表_tmpc2191.xlsx
+++ b/legislator/property/output/normal/姚文智_2013-12-31_財產申報表_tmpc2191.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="74">
   <si>
     <t>name</t>
   </si>
@@ -195,6 +195,9 @@
     <t>deposit</t>
   </si>
   <si>
+    <t>quantity</t>
+  </si>
+  <si>
     <t>油畫</t>
   </si>
   <si>
@@ -202,6 +205,9 @@
   </si>
   <si>
     <t>珠寶</t>
+  </si>
+  <si>
+    <t>otherbonds</t>
   </si>
   <si>
     <t>富邦人壽</t>
@@ -1406,32 +1412,53 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="1">
-        <v>2</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" s="1">
-        <v>400000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
         <v>79</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C2" s="2">
         <v>2</v>
@@ -1442,13 +1469,34 @@
       <c r="E2" s="2">
         <v>400000</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1745</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>80</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C3" s="2">
         <v>2</v>
@@ -1459,13 +1507,34 @@
       <c r="E3" s="2">
         <v>250000</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1745</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>81</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C4" s="2">
         <v>3</v>
@@ -1475,6 +1544,27 @@
       </c>
       <c r="E4" s="2">
         <v>500000</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1745</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="2">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1492,10 +1582,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>32</v>
@@ -1506,10 +1596,10 @@
         <v>86</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>32</v>
@@ -1520,10 +1610,10 @@
         <v>87</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>22</v>
@@ -1544,22 +1634,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E1" s="1">
         <v>2000000</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1567,22 +1657,22 @@
         <v>92</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F2" s="2">
         <v>2000000</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1600,13 +1690,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E1" s="1">
         <v>8070000</v>
@@ -1615,7 +1705,7 @@
         <v>23</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1623,13 +1713,13 @@
         <v>97</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E2" s="2">
         <v>8070000</v>
@@ -1638,7 +1728,7 @@
         <v>23</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1659,10 +1749,10 @@
         <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E1" s="1">
         <v>2500000</v>
@@ -1671,7 +1761,7 @@
         <v>23</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1682,10 +1772,10 @@
         <v>22</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E2" s="2">
         <v>2500000</v>
@@ -1694,7 +1784,7 @@
         <v>23</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/姚文智_2013-12-31_財產申報表_tmpc2191.xlsx
+++ b/legislator/property/output/normal/姚文智_2013-12-31_財產申報表_tmpc2191.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="82">
   <si>
     <t>name</t>
   </si>
@@ -207,16 +207,28 @@
     <t>珠寶</t>
   </si>
   <si>
-    <t>otherbonds</t>
+    <t>antique</t>
+  </si>
+  <si>
+    <t>company</t>
   </si>
   <si>
     <t>富邦人壽</t>
   </si>
   <si>
+    <t>南山人壽</t>
+  </si>
+  <si>
     <t>投資型壽險</t>
   </si>
   <si>
-    <t>南山人壽</t>
+    <t>insurance</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
   </si>
   <si>
     <t>借款</t>
@@ -228,6 +240,9 @@
     <t>102年08月01日</t>
   </si>
   <si>
+    <t>claim</t>
+  </si>
+  <si>
     <t>房屋貸款</t>
   </si>
   <si>
@@ -237,6 +252,12 @@
     <t>轉貸自合庫</t>
   </si>
   <si>
+    <t>debt</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
     <t>創意企業有限公司</t>
   </si>
   <si>
@@ -244,6 +265,9 @@
   </si>
   <si>
     <t>投資</t>
+  </si>
+  <si>
+    <t>investment</t>
   </si>
 </sst>
 </file>
@@ -1574,38 +1598,80 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>86</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1745</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>87</v>
       </c>
@@ -1613,10 +1679,31 @@
         <v>64</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>22</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1745</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="2">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1626,53 +1713,95 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E1" s="1">
-        <v>2000000</v>
+        <v>68</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>67</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>92</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F2" s="2">
+        <v>70</v>
+      </c>
+      <c r="E2" s="2">
         <v>2000000</v>
       </c>
+      <c r="F2" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="G2" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1745</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" s="2">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1682,44 +1811,65 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E1" s="1">
-        <v>8070000</v>
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>97</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E2" s="2">
         <v>8070000</v>
@@ -1728,7 +1878,28 @@
         <v>23</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1745</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" s="2">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1738,33 +1909,54 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E1" s="1">
-        <v>2500000</v>
+        <v>77</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>102</v>
       </c>
@@ -1772,10 +1964,10 @@
         <v>22</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="E2" s="2">
         <v>2500000</v>
@@ -1784,7 +1976,28 @@
         <v>23</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>73</v>
+        <v>80</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1745</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" s="2">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
